--- a/biology/Zoologie/Algyroides_marchi/Algyroides_marchi.xlsx
+++ b/biology/Zoologie/Algyroides_marchi/Algyroides_marchi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Algyroides marchi est une espèce de sauriens de la famille des Lacertidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Algyroides marchi est une espèce de sauriens de la famille des Lacertidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Sud-Est de l'Espagne[1]. Elle se rencontre dans les sierras de Cazorla, de Segura et d'Alcaraz.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Sud-Est de l'Espagne. Elle se rencontre dans les sierras de Cazorla, de Segura et d'Alcaraz.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce lézard vit dans des zones montagneuses de forêts tempérées ou de rochers[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce lézard vit dans des zones montagneuses de forêts tempérées ou de rochers.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste de sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (8 décembre 2012)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (8 décembre 2012) :
 Algyroides marchi niethammeri Buchholz, 1965
 Algyroides marchi marchi Valverde, 1958</t>
         </is>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Juan March Ordinas (1880–1962)[3] et la sous-espèce en l'honneur de Günther Niethammer[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Juan March Ordinas (1880–1962) et la sous-espèce en l'honneur de Günther Niethammer.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Buchholz, 1965 "1964" : Zur Kenntnis des Genus Algyroides (Reptilia: Lacertidae). Bonner Zoologische Beiträge vol. 15, p. 239-246 (intégral).
 Valverde, 1958 : Una nueva lagartija del género Algiroides Bribron procedente de la Sierra de Cazorla (Sur de España). Archivos del Instituto de Aclimatación de Almería, vol. 7, p. 127-134 (texte intégral).</t>
